--- a/ИЗМЕНЕНИЯ В БАЗЕ/Закрытие договоров о социальном обслуживании/Журнал старых значений/2020 Вятскополянский район (Малмыж все).xlsx
+++ b/ИЗМЕНЕНИЯ В БАЗЕ/Закрытие договоров о социальном обслуживании/Журнал старых значений/2020 Вятскополянский район (Малмыж все).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15738" uniqueCount="5219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16146" uniqueCount="5361">
   <si>
     <t>OUID</t>
   </si>
@@ -15676,6 +15676,432 @@
   </si>
   <si>
     <t>2021-01-20 16:13:00.897</t>
+  </si>
+  <si>
+    <t>8283816</t>
+  </si>
+  <si>
+    <t>2020-12-08 08:42:47.000</t>
+  </si>
+  <si>
+    <t>2022-09-22 12:00:00.000</t>
+  </si>
+  <si>
+    <t>8284947</t>
+  </si>
+  <si>
+    <t>2019-10-10 14:54:00.750</t>
+  </si>
+  <si>
+    <t>2022-09-27 12:00:00.000</t>
+  </si>
+  <si>
+    <t>8284999</t>
+  </si>
+  <si>
+    <t>2020-12-08 13:13:38.003</t>
+  </si>
+  <si>
+    <t>2022-09-28 12:00:00.000</t>
+  </si>
+  <si>
+    <t>8285348</t>
+  </si>
+  <si>
+    <t>2019-10-10 16:04:49.063</t>
+  </si>
+  <si>
+    <t>2022-09-28 00:00:00.000</t>
+  </si>
+  <si>
+    <t>8285764</t>
+  </si>
+  <si>
+    <t>2019-10-11 08:04:51.970</t>
+  </si>
+  <si>
+    <t>2022-09-27 00:00:00.000</t>
+  </si>
+  <si>
+    <t>8286736</t>
+  </si>
+  <si>
+    <t>2019-10-14 16:54:31.690</t>
+  </si>
+  <si>
+    <t>2022-09-24 12:00:00.000</t>
+  </si>
+  <si>
+    <t>8287295</t>
+  </si>
+  <si>
+    <t>2020-12-08 10:34:13.127</t>
+  </si>
+  <si>
+    <t>8287376</t>
+  </si>
+  <si>
+    <t>2019-10-11 11:56:07.160</t>
+  </si>
+  <si>
+    <t>2022-09-24 00:00:00.000</t>
+  </si>
+  <si>
+    <t>8287769</t>
+  </si>
+  <si>
+    <t>2020-12-07 14:28:06.430</t>
+  </si>
+  <si>
+    <t>8287818</t>
+  </si>
+  <si>
+    <t>2020-12-07 14:03:46.943</t>
+  </si>
+  <si>
+    <t>8287877</t>
+  </si>
+  <si>
+    <t>2020-12-07 14:00:41.970</t>
+  </si>
+  <si>
+    <t>8288495</t>
+  </si>
+  <si>
+    <t>2020-12-07 13:57:26.283</t>
+  </si>
+  <si>
+    <t>8288517</t>
+  </si>
+  <si>
+    <t>2020-12-07 14:06:58.593</t>
+  </si>
+  <si>
+    <t>8291540</t>
+  </si>
+  <si>
+    <t>2019-10-14 17:02:36.010</t>
+  </si>
+  <si>
+    <t>8291857</t>
+  </si>
+  <si>
+    <t>2019-10-14 12:03:22.643</t>
+  </si>
+  <si>
+    <t>8294044</t>
+  </si>
+  <si>
+    <t>2019-10-14 16:13:20.343</t>
+  </si>
+  <si>
+    <t>8296068</t>
+  </si>
+  <si>
+    <t>2020-12-07 15:26:16.987</t>
+  </si>
+  <si>
+    <t>99213</t>
+  </si>
+  <si>
+    <t>2021-01-26 08:54:56.273</t>
+  </si>
+  <si>
+    <t>99273</t>
+  </si>
+  <si>
+    <t>2021-01-30 10:44:58.097</t>
+  </si>
+  <si>
+    <t>99276</t>
+  </si>
+  <si>
+    <t>2021-01-30 10:13:57.713</t>
+  </si>
+  <si>
+    <t>99299</t>
+  </si>
+  <si>
+    <t>2020-12-11 16:07:49.417</t>
+  </si>
+  <si>
+    <t>99340</t>
+  </si>
+  <si>
+    <t>2021-01-30 08:56:27.857</t>
+  </si>
+  <si>
+    <t>99401</t>
+  </si>
+  <si>
+    <t>2021-01-30 08:53:13.977</t>
+  </si>
+  <si>
+    <t>99441</t>
+  </si>
+  <si>
+    <t>2020-12-14 09:58:12.023</t>
+  </si>
+  <si>
+    <t>99449</t>
+  </si>
+  <si>
+    <t>2021-01-30 08:31:56.233</t>
+  </si>
+  <si>
+    <t>99489</t>
+  </si>
+  <si>
+    <t>2021-01-29 15:33:40.133</t>
+  </si>
+  <si>
+    <t>99494</t>
+  </si>
+  <si>
+    <t>2020-12-14 08:16:13.133</t>
+  </si>
+  <si>
+    <t>99500</t>
+  </si>
+  <si>
+    <t>2021-01-29 16:27:23.527</t>
+  </si>
+  <si>
+    <t>99536</t>
+  </si>
+  <si>
+    <t>2021-01-29 16:23:02.987</t>
+  </si>
+  <si>
+    <t>99540</t>
+  </si>
+  <si>
+    <t>2021-01-29 15:03:52.060</t>
+  </si>
+  <si>
+    <t>99651</t>
+  </si>
+  <si>
+    <t>2020-12-07 10:40:02.593</t>
+  </si>
+  <si>
+    <t>99663</t>
+  </si>
+  <si>
+    <t>2021-01-30 09:55:56.493</t>
+  </si>
+  <si>
+    <t>99700</t>
+  </si>
+  <si>
+    <t>2021-01-30 09:10:32.517</t>
+  </si>
+  <si>
+    <t>99743</t>
+  </si>
+  <si>
+    <t>2021-01-22 13:26:48.827</t>
+  </si>
+  <si>
+    <t>2019-10-10 11:19:25.877</t>
+  </si>
+  <si>
+    <t>2022-09-22 00:00:00.000</t>
+  </si>
+  <si>
+    <t>99587</t>
+  </si>
+  <si>
+    <t>2020-04-29 11:58:23.073</t>
+  </si>
+  <si>
+    <t>99590</t>
+  </si>
+  <si>
+    <t>2019-11-30 11:57:25.993</t>
+  </si>
+  <si>
+    <t>2019-10-10 16:04:49.463</t>
+  </si>
+  <si>
+    <t>99654</t>
+  </si>
+  <si>
+    <t>2020-07-07 15:58:06.173</t>
+  </si>
+  <si>
+    <t>99715</t>
+  </si>
+  <si>
+    <t>2019-10-11 10:39:48.337</t>
+  </si>
+  <si>
+    <t>99755</t>
+  </si>
+  <si>
+    <t>2019-10-11 11:45:28.353</t>
+  </si>
+  <si>
+    <t>99763</t>
+  </si>
+  <si>
+    <t>2019-10-11 11:56:07.217</t>
+  </si>
+  <si>
+    <t>99803</t>
+  </si>
+  <si>
+    <t>2019-10-11 13:42:08.873</t>
+  </si>
+  <si>
+    <t>99808</t>
+  </si>
+  <si>
+    <t>2020-02-19 15:56:39.347</t>
+  </si>
+  <si>
+    <t>99814</t>
+  </si>
+  <si>
+    <t>2020-05-03 15:59:16.350</t>
+  </si>
+  <si>
+    <t>99850</t>
+  </si>
+  <si>
+    <t>2020-07-07 16:10:11.293</t>
+  </si>
+  <si>
+    <t>99854</t>
+  </si>
+  <si>
+    <t>2020-07-07 13:56:49.347</t>
+  </si>
+  <si>
+    <t>99965</t>
+  </si>
+  <si>
+    <t>2019-10-14 11:31:24.273</t>
+  </si>
+  <si>
+    <t>99977</t>
+  </si>
+  <si>
+    <t>2019-10-14 12:03:22.723</t>
+  </si>
+  <si>
+    <t>100014</t>
+  </si>
+  <si>
+    <t>2020-04-24 11:58:24.863</t>
+  </si>
+  <si>
+    <t>100057</t>
+  </si>
+  <si>
+    <t>2019-10-15 11:16:25.657</t>
+  </si>
+  <si>
+    <t>102339</t>
+  </si>
+  <si>
+    <t>2019-10-10 11:19:25.893</t>
+  </si>
+  <si>
+    <t>102399</t>
+  </si>
+  <si>
+    <t>2019-10-10 14:48:48.117</t>
+  </si>
+  <si>
+    <t>102402</t>
+  </si>
+  <si>
+    <t>2019-10-10 14:59:04.133</t>
+  </si>
+  <si>
+    <t>102426</t>
+  </si>
+  <si>
+    <t>2019-10-10 16:04:49.480</t>
+  </si>
+  <si>
+    <t>102467</t>
+  </si>
+  <si>
+    <t>2019-10-11 08:04:52.793</t>
+  </si>
+  <si>
+    <t>102529</t>
+  </si>
+  <si>
+    <t>2019-10-11 10:39:48.357</t>
+  </si>
+  <si>
+    <t>102569</t>
+  </si>
+  <si>
+    <t>2019-10-11 11:45:28.407</t>
+  </si>
+  <si>
+    <t>102577</t>
+  </si>
+  <si>
+    <t>2019-10-11 11:56:07.230</t>
+  </si>
+  <si>
+    <t>102619</t>
+  </si>
+  <si>
+    <t>2019-10-11 13:42:08.890</t>
+  </si>
+  <si>
+    <t>102624</t>
+  </si>
+  <si>
+    <t>2019-10-11 13:49:55.407</t>
+  </si>
+  <si>
+    <t>102630</t>
+  </si>
+  <si>
+    <t>2019-10-11 13:59:12.853</t>
+  </si>
+  <si>
+    <t>102666</t>
+  </si>
+  <si>
+    <t>2019-10-11 16:24:50.753</t>
+  </si>
+  <si>
+    <t>102670</t>
+  </si>
+  <si>
+    <t>2019-10-11 16:40:45.763</t>
+  </si>
+  <si>
+    <t>102781</t>
+  </si>
+  <si>
+    <t>2019-10-14 11:31:24.287</t>
+  </si>
+  <si>
+    <t>102793</t>
+  </si>
+  <si>
+    <t>2019-10-14 12:03:22.737</t>
+  </si>
+  <si>
+    <t>102831</t>
+  </si>
+  <si>
+    <t>2019-10-14 16:13:20.473</t>
+  </si>
+  <si>
+    <t>102874</t>
+  </si>
+  <si>
+    <t>2019-10-15 10:19:40.130</t>
   </si>
 </sst>
 </file>
@@ -15692,12 +16118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -15712,9 +16144,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -16009,10 +16442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2623"/>
+  <dimension ref="A1:F2691"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A2601" workbookViewId="0">
+      <selection activeCell="H2664" sqref="H2664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -68483,6 +68916,1366 @@
         <v>6</v>
       </c>
       <c r="F2623" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2624" spans="1:6">
+      <c r="A2624" s="2" t="s">
+        <v>5219</v>
+      </c>
+      <c r="B2624" s="2" t="s">
+        <v>5220</v>
+      </c>
+      <c r="C2624" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2624" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2624" s="2" t="s">
+        <v>5221</v>
+      </c>
+      <c r="F2624" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2625" spans="1:6">
+      <c r="A2625" s="2" t="s">
+        <v>5222</v>
+      </c>
+      <c r="B2625" s="2" t="s">
+        <v>5223</v>
+      </c>
+      <c r="C2625" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2625" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2625" s="2" t="s">
+        <v>5224</v>
+      </c>
+      <c r="F2625" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2626" spans="1:6">
+      <c r="A2626" s="2" t="s">
+        <v>5225</v>
+      </c>
+      <c r="B2626" s="2" t="s">
+        <v>5226</v>
+      </c>
+      <c r="C2626" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2626" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2626" s="2" t="s">
+        <v>5227</v>
+      </c>
+      <c r="F2626" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2627" spans="1:6">
+      <c r="A2627" s="2" t="s">
+        <v>5228</v>
+      </c>
+      <c r="B2627" s="2" t="s">
+        <v>5229</v>
+      </c>
+      <c r="C2627" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2627" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2627" s="2" t="s">
+        <v>5230</v>
+      </c>
+      <c r="F2627" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2628" spans="1:6">
+      <c r="A2628" s="2" t="s">
+        <v>5231</v>
+      </c>
+      <c r="B2628" s="2" t="s">
+        <v>5232</v>
+      </c>
+      <c r="C2628" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2628" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2628" s="2" t="s">
+        <v>5233</v>
+      </c>
+      <c r="F2628" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2629" spans="1:6">
+      <c r="A2629" s="2" t="s">
+        <v>5234</v>
+      </c>
+      <c r="B2629" s="2" t="s">
+        <v>5235</v>
+      </c>
+      <c r="C2629" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2629" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2629" s="2" t="s">
+        <v>5236</v>
+      </c>
+      <c r="F2629" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2630" spans="1:6">
+      <c r="A2630" s="2" t="s">
+        <v>5237</v>
+      </c>
+      <c r="B2630" s="2" t="s">
+        <v>5238</v>
+      </c>
+      <c r="C2630" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2630" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2630" s="2" t="s">
+        <v>5236</v>
+      </c>
+      <c r="F2630" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2631" spans="1:6">
+      <c r="A2631" s="2" t="s">
+        <v>5239</v>
+      </c>
+      <c r="B2631" s="2" t="s">
+        <v>5240</v>
+      </c>
+      <c r="C2631" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2631" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2631" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2631" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2632" spans="1:6">
+      <c r="A2632" s="2" t="s">
+        <v>5242</v>
+      </c>
+      <c r="B2632" s="2" t="s">
+        <v>5243</v>
+      </c>
+      <c r="C2632" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2632" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2632" s="2" t="s">
+        <v>5224</v>
+      </c>
+      <c r="F2632" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2633" spans="1:6">
+      <c r="A2633" s="2" t="s">
+        <v>5244</v>
+      </c>
+      <c r="B2633" s="2" t="s">
+        <v>5245</v>
+      </c>
+      <c r="C2633" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2633" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2633" s="2" t="s">
+        <v>5236</v>
+      </c>
+      <c r="F2633" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2634" spans="1:6">
+      <c r="A2634" s="2" t="s">
+        <v>5246</v>
+      </c>
+      <c r="B2634" s="2" t="s">
+        <v>5247</v>
+      </c>
+      <c r="C2634" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2634" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2634" s="2" t="s">
+        <v>5236</v>
+      </c>
+      <c r="F2634" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2635" spans="1:6">
+      <c r="A2635" s="2" t="s">
+        <v>5248</v>
+      </c>
+      <c r="B2635" s="2" t="s">
+        <v>5249</v>
+      </c>
+      <c r="C2635" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2635" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2635" s="2" t="s">
+        <v>5236</v>
+      </c>
+      <c r="F2635" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2636" spans="1:6">
+      <c r="A2636" s="2" t="s">
+        <v>5250</v>
+      </c>
+      <c r="B2636" s="2" t="s">
+        <v>5251</v>
+      </c>
+      <c r="C2636" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2636" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2636" s="2" t="s">
+        <v>5236</v>
+      </c>
+      <c r="F2636" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2637" spans="1:6">
+      <c r="A2637" s="2" t="s">
+        <v>5252</v>
+      </c>
+      <c r="B2637" s="2" t="s">
+        <v>5253</v>
+      </c>
+      <c r="C2637" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2637" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2637" s="2" t="s">
+        <v>5236</v>
+      </c>
+      <c r="F2637" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2638" spans="1:6">
+      <c r="A2638" s="2" t="s">
+        <v>5254</v>
+      </c>
+      <c r="B2638" s="2" t="s">
+        <v>5255</v>
+      </c>
+      <c r="C2638" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2638" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2638" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2638" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2639" spans="1:6">
+      <c r="A2639" s="2" t="s">
+        <v>5256</v>
+      </c>
+      <c r="B2639" s="2" t="s">
+        <v>5257</v>
+      </c>
+      <c r="C2639" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2639" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2639" s="2" t="s">
+        <v>5230</v>
+      </c>
+      <c r="F2639" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2640" spans="1:6">
+      <c r="A2640" s="2" t="s">
+        <v>5258</v>
+      </c>
+      <c r="B2640" s="2" t="s">
+        <v>5259</v>
+      </c>
+      <c r="C2640" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="D2640" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2640" s="2" t="s">
+        <v>5221</v>
+      </c>
+      <c r="F2640" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2641" spans="1:6">
+      <c r="A2641" s="2" t="s">
+        <v>5260</v>
+      </c>
+      <c r="B2641" s="2" t="s">
+        <v>5261</v>
+      </c>
+      <c r="C2641" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2641" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2641" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2641" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2642" spans="1:6">
+      <c r="A2642" s="2" t="s">
+        <v>5262</v>
+      </c>
+      <c r="B2642" s="2" t="s">
+        <v>5263</v>
+      </c>
+      <c r="C2642" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2642" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2642" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2642" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2643" spans="1:6">
+      <c r="A2643" s="2" t="s">
+        <v>5264</v>
+      </c>
+      <c r="B2643" s="2" t="s">
+        <v>5265</v>
+      </c>
+      <c r="C2643" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2643" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2643" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2643" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2644" spans="1:6">
+      <c r="A2644" s="2" t="s">
+        <v>5266</v>
+      </c>
+      <c r="B2644" s="2" t="s">
+        <v>5267</v>
+      </c>
+      <c r="C2644" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2644" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2644" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2644" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2645" spans="1:6">
+      <c r="A2645" s="2" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B2645" s="2" t="s">
+        <v>5269</v>
+      </c>
+      <c r="C2645" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2645" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2645" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2645" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2646" spans="1:6">
+      <c r="A2646" s="2" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B2646" s="2" t="s">
+        <v>5271</v>
+      </c>
+      <c r="C2646" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2646" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2646" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2646" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2647" spans="1:6">
+      <c r="A2647" s="2" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B2647" s="2" t="s">
+        <v>5273</v>
+      </c>
+      <c r="C2647" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2647" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2647" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2647" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2648" spans="1:6">
+      <c r="A2648" s="2" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B2648" s="2" t="s">
+        <v>5275</v>
+      </c>
+      <c r="C2648" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2648" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2648" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2648" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2649" spans="1:6">
+      <c r="A2649" s="2" t="s">
+        <v>5276</v>
+      </c>
+      <c r="B2649" s="2" t="s">
+        <v>5277</v>
+      </c>
+      <c r="C2649" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2649" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2649" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2649" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2650" spans="1:6">
+      <c r="A2650" s="2" t="s">
+        <v>5278</v>
+      </c>
+      <c r="B2650" s="2" t="s">
+        <v>5279</v>
+      </c>
+      <c r="C2650" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2650" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2650" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2650" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2651" spans="1:6">
+      <c r="A2651" s="2" t="s">
+        <v>5280</v>
+      </c>
+      <c r="B2651" s="2" t="s">
+        <v>5281</v>
+      </c>
+      <c r="C2651" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2651" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2651" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2651" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2652" spans="1:6">
+      <c r="A2652" s="2" t="s">
+        <v>5282</v>
+      </c>
+      <c r="B2652" s="2" t="s">
+        <v>5283</v>
+      </c>
+      <c r="C2652" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2652" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2652" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2652" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2653" spans="1:6">
+      <c r="A2653" s="2" t="s">
+        <v>5284</v>
+      </c>
+      <c r="B2653" s="2" t="s">
+        <v>5285</v>
+      </c>
+      <c r="C2653" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2653" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2653" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2653" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2654" spans="1:6">
+      <c r="A2654" s="2" t="s">
+        <v>5286</v>
+      </c>
+      <c r="B2654" s="2" t="s">
+        <v>5287</v>
+      </c>
+      <c r="C2654" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2654" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2654" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2654" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2655" spans="1:6">
+      <c r="A2655" s="2" t="s">
+        <v>5288</v>
+      </c>
+      <c r="B2655" s="2" t="s">
+        <v>5289</v>
+      </c>
+      <c r="C2655" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2655" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2655" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2655" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2656" spans="1:6">
+      <c r="A2656" s="2" t="s">
+        <v>5290</v>
+      </c>
+      <c r="B2656" s="2" t="s">
+        <v>5291</v>
+      </c>
+      <c r="C2656" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2656" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2656" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2656" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2657" spans="1:6">
+      <c r="A2657" s="2" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B2657" s="2" t="s">
+        <v>5293</v>
+      </c>
+      <c r="C2657" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2657" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2657" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2657" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2658" spans="1:6">
+      <c r="A2658" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B2658" s="2" t="s">
+        <v>5294</v>
+      </c>
+      <c r="C2658" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2658" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2658" s="2" t="s">
+        <v>5295</v>
+      </c>
+      <c r="F2658" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2659" spans="1:6">
+      <c r="A2659" s="2" t="s">
+        <v>5296</v>
+      </c>
+      <c r="B2659" s="2" t="s">
+        <v>5297</v>
+      </c>
+      <c r="C2659" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2659" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2659" s="2" t="s">
+        <v>5233</v>
+      </c>
+      <c r="F2659" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2660" spans="1:6">
+      <c r="A2660" s="2" t="s">
+        <v>5298</v>
+      </c>
+      <c r="B2660" s="2" t="s">
+        <v>5299</v>
+      </c>
+      <c r="C2660" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2660" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2660" s="2" t="s">
+        <v>5230</v>
+      </c>
+      <c r="F2660" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2661" spans="1:6">
+      <c r="A2661" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2661" s="2" t="s">
+        <v>5300</v>
+      </c>
+      <c r="C2661" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2661" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2661" s="2" t="s">
+        <v>5230</v>
+      </c>
+      <c r="F2661" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2662" spans="1:6">
+      <c r="A2662" s="2" t="s">
+        <v>5301</v>
+      </c>
+      <c r="B2662" s="2" t="s">
+        <v>5302</v>
+      </c>
+      <c r="C2662" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2662" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2662" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2662" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2663" spans="1:6">
+      <c r="A2663" s="2" t="s">
+        <v>5303</v>
+      </c>
+      <c r="B2663" s="2" t="s">
+        <v>5304</v>
+      </c>
+      <c r="C2663" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2663" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2663" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2663" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2664" spans="1:6">
+      <c r="A2664" s="2" t="s">
+        <v>5305</v>
+      </c>
+      <c r="B2664" s="2" t="s">
+        <v>5306</v>
+      </c>
+      <c r="C2664" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2664" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2664" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2664" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2665" spans="1:6">
+      <c r="A2665" s="2" t="s">
+        <v>5307</v>
+      </c>
+      <c r="B2665" s="2" t="s">
+        <v>5308</v>
+      </c>
+      <c r="C2665" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2665" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2665" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2665" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2666" spans="1:6">
+      <c r="A2666" s="2" t="s">
+        <v>5309</v>
+      </c>
+      <c r="B2666" s="2" t="s">
+        <v>5310</v>
+      </c>
+      <c r="C2666" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2666" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2666" s="2" t="s">
+        <v>5233</v>
+      </c>
+      <c r="F2666" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2667" spans="1:6">
+      <c r="A2667" s="2" t="s">
+        <v>5311</v>
+      </c>
+      <c r="B2667" s="2" t="s">
+        <v>5312</v>
+      </c>
+      <c r="C2667" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2667" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2667" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2667" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2668" spans="1:6">
+      <c r="A2668" s="2" t="s">
+        <v>5313</v>
+      </c>
+      <c r="B2668" s="2" t="s">
+        <v>5314</v>
+      </c>
+      <c r="C2668" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2668" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2668" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2668" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2669" spans="1:6">
+      <c r="A2669" s="2" t="s">
+        <v>5315</v>
+      </c>
+      <c r="B2669" s="2" t="s">
+        <v>5316</v>
+      </c>
+      <c r="C2669" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2669" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2669" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2669" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2670" spans="1:6">
+      <c r="A2670" s="2" t="s">
+        <v>5317</v>
+      </c>
+      <c r="B2670" s="2" t="s">
+        <v>5318</v>
+      </c>
+      <c r="C2670" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2670" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2670" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2670" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2671" spans="1:6">
+      <c r="A2671" s="2" t="s">
+        <v>5319</v>
+      </c>
+      <c r="B2671" s="2" t="s">
+        <v>5320</v>
+      </c>
+      <c r="C2671" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2671" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2671" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2671" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2672" spans="1:6">
+      <c r="A2672" s="2" t="s">
+        <v>5321</v>
+      </c>
+      <c r="B2672" s="2" t="s">
+        <v>5322</v>
+      </c>
+      <c r="C2672" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2672" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2672" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2672" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2673" spans="1:6">
+      <c r="A2673" s="2" t="s">
+        <v>5323</v>
+      </c>
+      <c r="B2673" s="2" t="s">
+        <v>5324</v>
+      </c>
+      <c r="C2673" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2673" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2673" s="2" t="s">
+        <v>5230</v>
+      </c>
+      <c r="F2673" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2674" spans="1:6">
+      <c r="A2674" s="2" t="s">
+        <v>5325</v>
+      </c>
+      <c r="B2674" s="2" t="s">
+        <v>5326</v>
+      </c>
+      <c r="C2674" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2674" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E2674" s="2" t="s">
+        <v>5221</v>
+      </c>
+      <c r="F2674" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2675" spans="1:6">
+      <c r="A2675" s="2" t="s">
+        <v>5327</v>
+      </c>
+      <c r="B2675" s="2" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C2675" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2675" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2675" s="2" t="s">
+        <v>5295</v>
+      </c>
+      <c r="F2675" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2676" spans="1:6">
+      <c r="A2676" s="2" t="s">
+        <v>5329</v>
+      </c>
+      <c r="B2676" s="2" t="s">
+        <v>5330</v>
+      </c>
+      <c r="C2676" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2676" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2676" s="2" t="s">
+        <v>5233</v>
+      </c>
+      <c r="F2676" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2677" spans="1:6">
+      <c r="A2677" s="2" t="s">
+        <v>5331</v>
+      </c>
+      <c r="B2677" s="2" t="s">
+        <v>5332</v>
+      </c>
+      <c r="C2677" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2677" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2677" s="2" t="s">
+        <v>5230</v>
+      </c>
+      <c r="F2677" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2678" spans="1:6">
+      <c r="A2678" s="2" t="s">
+        <v>5333</v>
+      </c>
+      <c r="B2678" s="2" t="s">
+        <v>5334</v>
+      </c>
+      <c r="C2678" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2678" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2678" s="2" t="s">
+        <v>5230</v>
+      </c>
+      <c r="F2678" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2679" spans="1:6">
+      <c r="A2679" s="2" t="s">
+        <v>5335</v>
+      </c>
+      <c r="B2679" s="2" t="s">
+        <v>5336</v>
+      </c>
+      <c r="C2679" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2679" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2679" s="2" t="s">
+        <v>5233</v>
+      </c>
+      <c r="F2679" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2680" spans="1:6">
+      <c r="A2680" s="2" t="s">
+        <v>5337</v>
+      </c>
+      <c r="B2680" s="2" t="s">
+        <v>5338</v>
+      </c>
+      <c r="C2680" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2680" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2680" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2680" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2681" spans="1:6">
+      <c r="A2681" s="2" t="s">
+        <v>5339</v>
+      </c>
+      <c r="B2681" s="2" t="s">
+        <v>5340</v>
+      </c>
+      <c r="C2681" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2681" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2681" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2681" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2682" spans="1:6">
+      <c r="A2682" s="2" t="s">
+        <v>5341</v>
+      </c>
+      <c r="B2682" s="2" t="s">
+        <v>5342</v>
+      </c>
+      <c r="C2682" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2682" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2682" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2682" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2683" spans="1:6">
+      <c r="A2683" s="2" t="s">
+        <v>5343</v>
+      </c>
+      <c r="B2683" s="2" t="s">
+        <v>5344</v>
+      </c>
+      <c r="C2683" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2683" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2683" s="2" t="s">
+        <v>5233</v>
+      </c>
+      <c r="F2683" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2684" spans="1:6">
+      <c r="A2684" s="2" t="s">
+        <v>5345</v>
+      </c>
+      <c r="B2684" s="2" t="s">
+        <v>5346</v>
+      </c>
+      <c r="C2684" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2684" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2684" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2684" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2685" spans="1:6">
+      <c r="A2685" s="2" t="s">
+        <v>5347</v>
+      </c>
+      <c r="B2685" s="2" t="s">
+        <v>5348</v>
+      </c>
+      <c r="C2685" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2685" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2685" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2685" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2686" spans="1:6">
+      <c r="A2686" s="2" t="s">
+        <v>5349</v>
+      </c>
+      <c r="B2686" s="2" t="s">
+        <v>5350</v>
+      </c>
+      <c r="C2686" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2686" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2686" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2686" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2687" spans="1:6">
+      <c r="A2687" s="2" t="s">
+        <v>5351</v>
+      </c>
+      <c r="B2687" s="2" t="s">
+        <v>5352</v>
+      </c>
+      <c r="C2687" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2687" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2687" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2687" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2688" spans="1:6">
+      <c r="A2688" s="2" t="s">
+        <v>5353</v>
+      </c>
+      <c r="B2688" s="2" t="s">
+        <v>5354</v>
+      </c>
+      <c r="C2688" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2688" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2688" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2688" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2689" spans="1:6">
+      <c r="A2689" s="2" t="s">
+        <v>5355</v>
+      </c>
+      <c r="B2689" s="2" t="s">
+        <v>5356</v>
+      </c>
+      <c r="C2689" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2689" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2689" s="2" t="s">
+        <v>5241</v>
+      </c>
+      <c r="F2689" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2690" spans="1:6">
+      <c r="A2690" s="2" t="s">
+        <v>5357</v>
+      </c>
+      <c r="B2690" s="2" t="s">
+        <v>5358</v>
+      </c>
+      <c r="C2690" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2690" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2690" s="2" t="s">
+        <v>5230</v>
+      </c>
+      <c r="F2690" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2691" spans="1:6">
+      <c r="A2691" s="2" t="s">
+        <v>5359</v>
+      </c>
+      <c r="B2691" s="2" t="s">
+        <v>5360</v>
+      </c>
+      <c r="C2691" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2691" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2691" s="2" t="s">
+        <v>5295</v>
+      </c>
+      <c r="F2691" s="2" t="s">
         <v>195</v>
       </c>
     </row>
